--- a/biology/Médecine/Muscle_petit_glutéal/Muscle_petit_glutéal.xlsx
+++ b/biology/Médecine/Muscle_petit_glutéal/Muscle_petit_glutéal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal (anciennement muscle petit fessier) est un muscle du membre inférieur. Il fait partie des muscles fessiers superficiels avec les muscles moyen glutéal, grand glutéal et tenseur du fascia lata. Il est recouvert en partie par le muscle moyen glutéal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal est un muscle triangulaire de la partie profonde de la région fessière. Il relie l'os coxal au fémur.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal se fixe sur la fosse iliaque externe en avant de la ligne glutéale antérieure et sur le fascia glutéal.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal a une forme pyramidale à base supérieure. Ses fibres convergent vers le bas, en dehors et en arrière. Elles adhérent à la capsule de l'articulation coxale.
 Il franchit le bord ventral du grand trochanter par l'intermédiaire de la bourse trochantérique du muscle petit glutéal.
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal se termine sur le bord antérieur du grand trochanter.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal est innervé par le nerf glutéal supérieur.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle petit glutéal est vascularisé par l'artère glutéale supérieure.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_petit_glut%C3%A9al</t>
+          <t>Muscle_petit_glutéal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,9 +722,11 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle petit glutéal est[1]:
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle petit glutéal est:
 Abducteur de la cuisse sur le bassin (en synergie avec le moyen fessier).
 Rotateur médial.
 Fléchisseur de la cuisse sur le bassin
